--- a/批量导入模板/期末名次班主任更新模板.xlsx
+++ b/批量导入模板/期末名次班主任更新模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAEF64-AD11-4013-ADCC-4C2CD78EDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63C1B7C-6786-435B-BD1A-472053DEACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28260" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="2340" windowWidth="28260" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,20 +46,30 @@
     <t>2024-2025上学期</t>
   </si>
   <si>
-    <t>测试8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期末</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>测试8</t>
   </si>
 </sst>
 </file>
@@ -391,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,7 +412,7 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,49 +423,180 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
